--- a/_files/student_grades_g2.xlsx
+++ b/_files/student_grades_g2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Downloads\Planeación mayo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="88">
   <si>
     <t>firstName</t>
   </si>
@@ -293,6 +293,9 @@
   </si>
   <si>
     <t>Waira puedes cuidar más del orden y la presentación de tu tarea.</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #5 - &lt;/span&gt; Multiplicación por una cifra</t>
   </si>
 </sst>
 </file>
@@ -432,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,6 +506,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -830,11 +839,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,9 +853,11 @@
     <col min="3" max="3" width="27.140625" customWidth="1"/>
     <col min="4" max="14" width="12.7109375" customWidth="1"/>
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -892,14 +903,20 @@
       <c r="O1" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15">
         <f ca="1">TODAY()</f>
-        <v>43959</v>
+        <v>43967</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>74</v>
@@ -940,8 +957,14 @@
       <c r="O2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -987,8 +1010,14 @@
       <c r="O3" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1034,8 +1063,10 @@
       <c r="O4" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1081,8 +1112,14 @@
       <c r="O5" s="5" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1128,8 +1165,14 @@
       <c r="O6" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1175,8 +1218,14 @@
       <c r="O7" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1222,8 +1271,14 @@
       <c r="O8" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1265,8 +1320,14 @@
       <c r="O9" s="5" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1308,8 +1369,14 @@
       <c r="O10" s="5" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1341,8 +1408,12 @@
         <v>2</v>
       </c>
       <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1388,8 +1459,14 @@
       <c r="O12" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1435,8 +1512,14 @@
       <c r="O13" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1482,8 +1565,14 @@
       <c r="O14" s="5" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1529,8 +1618,14 @@
       <c r="O15" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
@@ -1576,8 +1671,14 @@
       <c r="O16" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1623,8 +1724,14 @@
       <c r="O17" s="16" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
@@ -1670,8 +1777,14 @@
       <c r="O18" s="16" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
@@ -1717,8 +1830,14 @@
       <c r="O19" s="16" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1764,8 +1883,14 @@
       <c r="O20" s="16" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1811,8 +1936,14 @@
       <c r="O21" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1858,8 +1989,14 @@
       <c r="O22" s="16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
@@ -1904,6 +2041,12 @@
       </c>
       <c r="O23" s="16" t="s">
         <v>81</v>
+      </c>
+      <c r="P23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="16" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/_files/student_grades_g2.xlsx
+++ b/_files/student_grades_g2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="91">
   <si>
     <t>firstName</t>
   </si>
@@ -296,6 +296,15 @@
   </si>
   <si>
     <t>&lt;span&gt;Guía #5 - &lt;/span&gt; Multiplicación por una cifra</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #6 - &lt;/span&gt; Sucesiones numéricas</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Guía #7 - &lt;/span&gt; Taller de fin de periodo 2</t>
+  </si>
+  <si>
+    <t>¡Salo, haz hecho un excelente trabajo!</t>
   </si>
 </sst>
 </file>
@@ -306,7 +315,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +348,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,6 +422,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -435,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -512,6 +539,27 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -522,13 +570,13 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFD966"/>
       <color rgb="FFDE81FF"/>
       <color rgb="FF95B3D7"/>
       <color rgb="FFFFC000"/>
       <color rgb="FF0070C0"/>
       <color rgb="FF00B050"/>
       <color rgb="FFFFFF00"/>
-      <color rgb="FFFFD966"/>
     </mruColors>
   </colors>
   <extLst>
@@ -839,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q23" sqref="Q23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,9 +903,13 @@
     <col min="15" max="15" width="13.28515625" customWidth="1"/>
     <col min="16" max="16" width="12.7109375" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -909,14 +961,26 @@
       <c r="Q1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="R1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15">
         <f ca="1">TODAY()</f>
-        <v>43967</v>
+        <v>43974</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>74</v>
@@ -963,8 +1027,20 @@
       <c r="Q2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="R2" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1016,8 +1092,16 @@
       <c r="Q3" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="R3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T3" s="31"/>
+      <c r="U3" s="5"/>
     </row>
-    <row r="4" spans="1:17" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1063,10 +1147,18 @@
       <c r="O4" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="5"/>
+      <c r="P4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="30"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="5"/>
     </row>
-    <row r="5" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1118,8 +1210,16 @@
       <c r="Q5" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="R5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T5" s="32"/>
+      <c r="U5" s="5"/>
     </row>
-    <row r="6" spans="1:17" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1171,8 +1271,16 @@
       <c r="Q6" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="R6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="5"/>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1224,8 +1332,16 @@
       <c r="Q7" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="R7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T7" s="32"/>
+      <c r="U7" s="5"/>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1277,8 +1393,16 @@
       <c r="Q8" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="R8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T8" s="32"/>
+      <c r="U8" s="5"/>
     </row>
-    <row r="9" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1326,8 +1450,20 @@
       <c r="Q9" s="5" t="s">
         <v>86</v>
       </c>
+      <c r="R9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
-    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1375,8 +1511,16 @@
       <c r="Q10" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="R10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T10" s="32"/>
+      <c r="U10" s="5"/>
     </row>
-    <row r="11" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1412,8 +1556,12 @@
         <v>2</v>
       </c>
       <c r="Q11" s="5"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="5"/>
     </row>
-    <row r="12" spans="1:17" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1465,8 +1613,16 @@
       <c r="Q12" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="R12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="5"/>
     </row>
-    <row r="13" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1518,8 +1674,16 @@
       <c r="Q13" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="R13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="T13" s="32"/>
+      <c r="U13" s="5"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1571,8 +1735,16 @@
       <c r="Q14" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="R14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S14" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" s="32"/>
+      <c r="U14" s="5"/>
     </row>
-    <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1624,8 +1796,16 @@
       <c r="Q15" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="R15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T15" s="32"/>
+      <c r="U15" s="16"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
@@ -1677,8 +1857,16 @@
       <c r="Q16" s="16" t="s">
         <v>79</v>
       </c>
+      <c r="R16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S16" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T16" s="32"/>
+      <c r="U16" s="16"/>
     </row>
-    <row r="17" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1918,16 @@
       <c r="Q17" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="R17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T17" s="32"/>
+      <c r="U17" s="16"/>
     </row>
-    <row r="18" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
@@ -1783,8 +1979,16 @@
       <c r="Q18" s="16" t="s">
         <v>83</v>
       </c>
+      <c r="R18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="T18" s="32"/>
+      <c r="U18" s="16"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
@@ -1836,8 +2040,16 @@
       <c r="Q19" s="16" t="s">
         <v>79</v>
       </c>
+      <c r="R19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S19" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T19" s="32"/>
+      <c r="U19" s="16"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
@@ -1889,8 +2101,20 @@
       <c r="Q20" s="16" t="s">
         <v>80</v>
       </c>
+      <c r="R20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="T20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="16" t="s">
+        <v>90</v>
+      </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -1942,8 +2166,20 @@
       <c r="Q21" s="16" t="s">
         <v>79</v>
       </c>
+      <c r="R21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -1995,8 +2231,20 @@
       <c r="Q22" s="16" t="s">
         <v>84</v>
       </c>
+      <c r="R22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="T22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="16" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
@@ -2048,6 +2296,14 @@
       <c r="Q23" s="16" t="s">
         <v>80</v>
       </c>
+      <c r="R23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="T23" s="32"/>
+      <c r="U23" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_files/student_grades_g2.xlsx
+++ b/_files/student_grades_g2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="92">
   <si>
     <t>firstName</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>¡Salo, haz hecho un excelente trabajo!</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
 </sst>
 </file>
@@ -462,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -545,9 +548,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,9 +889,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="T23" sqref="T23"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -980,7 +980,7 @@
       </c>
       <c r="B2" s="15">
         <f ca="1">TODAY()</f>
-        <v>43974</v>
+        <v>43980</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>74</v>
@@ -1098,8 +1098,12 @@
       <c r="S3" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="31"/>
-      <c r="U3" s="5"/>
+      <c r="T3" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -1153,9 +1157,13 @@
       <c r="Q4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="R4" s="30"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="31"/>
+      <c r="R4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="T4" s="30"/>
       <c r="U4" s="5"/>
     </row>
     <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1216,7 +1224,7 @@
       <c r="S5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="32"/>
+      <c r="T5" s="31"/>
       <c r="U5" s="5"/>
     </row>
     <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -1277,8 +1285,12 @@
       <c r="S6" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="5"/>
+      <c r="T6" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -1338,8 +1350,12 @@
       <c r="S7" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="T7" s="32"/>
-      <c r="U7" s="5"/>
+      <c r="T7" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1399,8 +1415,12 @@
       <c r="S8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="5"/>
+      <c r="T8" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1517,8 +1537,12 @@
       <c r="S10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="5"/>
+      <c r="T10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1556,9 +1580,9 @@
         <v>2</v>
       </c>
       <c r="Q11" s="5"/>
-      <c r="R11" s="33"/>
+      <c r="R11" s="32"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="34"/>
+      <c r="T11" s="33"/>
       <c r="U11" s="5"/>
     </row>
     <row r="12" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1619,8 +1643,12 @@
       <c r="S12" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="5"/>
+      <c r="T12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="13" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1680,8 +1708,12 @@
       <c r="S13" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="T13" s="32"/>
-      <c r="U13" s="5"/>
+      <c r="T13" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1741,8 +1773,12 @@
       <c r="S14" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="5"/>
+      <c r="T14" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1802,8 +1838,12 @@
       <c r="S15" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="T15" s="32"/>
-      <c r="U15" s="16"/>
+      <c r="T15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -1863,8 +1903,12 @@
       <c r="S16" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="16"/>
+      <c r="T16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16" s="16" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="17" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
@@ -1924,8 +1968,12 @@
       <c r="S17" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="T17" s="32"/>
-      <c r="U17" s="16"/>
+      <c r="T17" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
@@ -1985,8 +2033,12 @@
       <c r="S18" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="T18" s="32"/>
-      <c r="U18" s="16"/>
+      <c r="T18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="16" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
@@ -2046,7 +2098,7 @@
       <c r="S19" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="T19" s="32"/>
+      <c r="T19" s="31"/>
       <c r="U19" s="16"/>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2302,8 +2354,12 @@
       <c r="S23" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="T23" s="32"/>
-      <c r="U23" s="16"/>
+      <c r="T23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="16" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_files/student_grades_g2.xlsx
+++ b/_files/student_grades_g2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="96">
   <si>
     <t>firstName</t>
   </si>
@@ -308,6 +308,18 @@
   </si>
   <si>
     <t>4.7</t>
+  </si>
+  <si>
+    <t>&lt;span&gt;Examen - &lt;/span&gt; Taller  fin de periodo 2</t>
+  </si>
+  <si>
+    <t>4.6</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>¡Excelente!</t>
   </si>
 </sst>
 </file>
@@ -358,7 +370,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,6 +449,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBBF4A4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -465,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,13 +571,19 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -570,6 +594,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFBBF4A4"/>
       <color rgb="FFFFD966"/>
       <color rgb="FFDE81FF"/>
       <color rgb="FF95B3D7"/>
@@ -887,11 +912,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W9" sqref="W9"/>
+      <pane xSplit="3" topLeftCell="N1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,9 +932,11 @@
     <col min="19" max="19" width="13.28515625" customWidth="1"/>
     <col min="20" max="20" width="12.7109375" customWidth="1"/>
     <col min="21" max="21" width="13.28515625" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" customWidth="1"/>
+    <col min="23" max="23" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" ht="61.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -973,14 +1000,20 @@
       <c r="U1" s="6" t="s">
         <v>8</v>
       </c>
+      <c r="V1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="15">
         <f ca="1">TODAY()</f>
-        <v>43980</v>
+        <v>43989</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>74</v>
@@ -1039,8 +1072,14 @@
       <c r="U2" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="V2" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="U3" s="5" t="s">
         <v>82</v>
       </c>
+      <c r="V3" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>12</v>
       </c>
@@ -1165,8 +1210,14 @@
       </c>
       <c r="T4" s="30"/>
       <c r="U4" s="5"/>
+      <c r="V4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="W4" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1224,10 +1275,20 @@
       <c r="S5" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="5"/>
+      <c r="T5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="V5" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="W5" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>14</v>
       </c>
@@ -1291,8 +1352,14 @@
       <c r="U6" s="5" t="s">
         <v>83</v>
       </c>
+      <c r="V6" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
@@ -1356,8 +1423,14 @@
       <c r="U7" s="5" t="s">
         <v>79</v>
       </c>
+      <c r="V7" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="W7" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -1421,8 +1494,14 @@
       <c r="U8" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="V8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -1432,20 +1511,24 @@
       <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="5"/>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="F9" s="17" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="5"/>
+      <c r="H9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="J9" s="9" t="s">
         <v>3</v>
       </c>
@@ -1482,8 +1565,14 @@
       <c r="U9" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="V9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
@@ -1543,8 +1632,14 @@
       <c r="U10" s="5" t="s">
         <v>81</v>
       </c>
+      <c r="V10" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>19</v>
       </c>
@@ -1580,12 +1675,14 @@
         <v>2</v>
       </c>
       <c r="Q11" s="5"/>
-      <c r="R11" s="32"/>
+      <c r="R11" s="31"/>
       <c r="S11" s="5"/>
-      <c r="T11" s="33"/>
+      <c r="T11" s="32"/>
       <c r="U11" s="5"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:21" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1746,14 @@
       <c r="U12" s="5" t="s">
         <v>84</v>
       </c>
+      <c r="V12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>21</v>
       </c>
@@ -1714,8 +1817,14 @@
       <c r="U13" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="V13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -1779,8 +1888,14 @@
       <c r="U14" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="V14" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -1844,8 +1959,14 @@
       <c r="U15" s="16" t="s">
         <v>81</v>
       </c>
+      <c r="V15" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
@@ -1909,8 +2030,14 @@
       <c r="U16" s="16" t="s">
         <v>82</v>
       </c>
+      <c r="V16" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
@@ -1974,8 +2101,14 @@
       <c r="U17" s="16" t="s">
         <v>84</v>
       </c>
+      <c r="V17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>26</v>
       </c>
@@ -2039,8 +2172,14 @@
       <c r="U18" s="16" t="s">
         <v>84</v>
       </c>
+      <c r="V18" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>27</v>
       </c>
@@ -2098,10 +2237,20 @@
       <c r="S19" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="T19" s="31"/>
-      <c r="U19" s="16"/>
+      <c r="T19" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="V19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>28</v>
       </c>
@@ -2165,8 +2314,14 @@
       <c r="U20" s="16" t="s">
         <v>90</v>
       </c>
+      <c r="V20" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>29</v>
       </c>
@@ -2230,8 +2385,14 @@
       <c r="U21" s="16" t="s">
         <v>83</v>
       </c>
+      <c r="V21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
@@ -2295,8 +2456,14 @@
       <c r="U22" s="16" t="s">
         <v>79</v>
       </c>
+      <c r="V22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>31</v>
       </c>
@@ -2359,6 +2526,12 @@
       </c>
       <c r="U23" s="16" t="s">
         <v>82</v>
+      </c>
+      <c r="V23" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="W23" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
